--- a/자회사A_FS.xlsx
+++ b/자회사A_FS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhhye\OneDrive\문서\2025 Others\st_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hwan-Hee Hyeong\Documents\OneDrive\문서\2025 Others\st_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="BSPL" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="949">
   <si>
     <t>1100</t>
   </si>
@@ -2713,14 +2713,125 @@
     <t>매각예정자산에 포함된 현금및현금성자산</t>
   </si>
   <si>
-    <t>(지분율)</t>
+    <t>기초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>회계변경의 효과</t>
+  </si>
+  <si>
+    <t>당기순손익</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토지와 건물의 재평가이익 </t>
+  </si>
+  <si>
+    <t>토지와 건물에 대한 감가상각비의 대체</t>
+  </si>
+  <si>
+    <t>관계기업 기타포괄손익에 대한 지분해당액</t>
+  </si>
+  <si>
+    <t>순확정급여부채의 재측정요소</t>
+  </si>
+  <si>
+    <t>현금흐름 위험회피</t>
+  </si>
+  <si>
+    <t>순투자에 대한 위험회피</t>
+  </si>
+  <si>
+    <t>해외사업환산손익</t>
+  </si>
+  <si>
+    <t>주식발행</t>
+  </si>
+  <si>
+    <t>주식할인발행차금</t>
+  </si>
+  <si>
+    <t>자기주식 거래</t>
+  </si>
+  <si>
+    <t>배당</t>
+  </si>
+  <si>
+    <t>연결범위 변동</t>
+  </si>
+  <si>
+    <t>지분변동차액</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기타포괄손익측정금융자산 평가손익 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자회사A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>자본조정</t>
   </si>
   <si>
     <t>기타포괄손익누계액</t>
+  </si>
+  <si>
+    <t>비지배지분</t>
+  </si>
+  <si>
+    <t>지분율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2728,160 +2839,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>3400</t>
-  </si>
-  <si>
-    <t>기초</t>
+    <t>조정코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CE_beg</t>
+    <t>105100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회계변경의 효과</t>
-  </si>
-  <si>
-    <t>CE1</t>
+    <t>105200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>당기순손익</t>
-  </si>
-  <si>
-    <t>지배지분순이익</t>
-  </si>
-  <si>
-    <t>102000</t>
-  </si>
-  <si>
-    <t>비지배지분순이익</t>
-  </si>
-  <si>
-    <t>102100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토지와 건물의 재평가이익 </t>
-  </si>
-  <si>
-    <t>CE2</t>
+    <t>105300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>토지와 건물에 대한 감가상각비의 대체</t>
-  </si>
-  <si>
-    <t>CE3</t>
+    <t>105400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">기타포괄손익측정금융자산 평가손익 </t>
+    <t>105000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CE4</t>
+    <t>201200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관계기업 기타포괄손익에 대한 지분해당액</t>
-  </si>
-  <si>
-    <t>CE5</t>
-  </si>
-  <si>
-    <t>순확정급여부채의 재측정요소</t>
-  </si>
-  <si>
-    <t>CE6</t>
-  </si>
-  <si>
-    <t>현금흐름 위험회피</t>
-  </si>
-  <si>
-    <t>CE7</t>
-  </si>
-  <si>
-    <t>순투자에 대한 위험회피</t>
-  </si>
-  <si>
-    <t>CE8</t>
-  </si>
-  <si>
-    <t>해외사업환산손익</t>
-  </si>
-  <si>
-    <t>CE9</t>
-  </si>
-  <si>
-    <t>CE10</t>
-  </si>
-  <si>
-    <t>주식발행</t>
-  </si>
-  <si>
-    <t>CE11</t>
-  </si>
-  <si>
-    <t>주식할인발행차금</t>
-  </si>
-  <si>
-    <t>CE12</t>
-  </si>
-  <si>
-    <t>자기주식 거래</t>
-  </si>
-  <si>
-    <t>CE13</t>
-  </si>
-  <si>
-    <t>배당</t>
-  </si>
-  <si>
-    <t>CE14</t>
+    <t>CE10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>연결범위 변동</t>
-  </si>
-  <si>
-    <t>CE100</t>
+    <t>CE10_NI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지분변동차액</t>
-  </si>
-  <si>
-    <t>CE101</t>
+    <t>CE30_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
+    <t>CE40_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CE102</t>
+    <t>CE50_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기말</t>
+    <t>CE60_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CE_end</t>
+    <t>CE70_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비지배지분</t>
+    <t>CE80_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE90_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE100_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE110_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE120_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE130_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE140_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE150_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1000_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1010_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2939,6 +2997,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2984,7 +3048,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3013,22 +3077,31 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3314,16 +3387,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -3334,7 +3408,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3419,7 @@
         <v>138075950588</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3356,7 +3430,7 @@
         <v>114011958774</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3441,7 @@
         <v>8832005</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3389,7 +3463,7 @@
         <v>21641221163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3400,7 +3474,7 @@
         <v>71000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3411,7 +3485,7 @@
         <v>13128202573</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3422,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3433,7 +3507,7 @@
         <v>872058000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3444,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3455,7 +3529,7 @@
         <v>548098300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3466,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3477,7 +3551,7 @@
         <v>777270942</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3488,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3499,7 +3573,7 @@
         <v>2960000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3510,7 +3584,7 @@
         <v>711032953</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3595,7 @@
         <v>756757177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3532,7 +3606,7 @@
         <v>1584159000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3543,7 +3617,7 @@
         <v>24326661</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3554,7 +3628,7 @@
         <v>24063991814</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3565,7 +3639,7 @@
         <v>1827691718</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3576,7 +3650,7 @@
         <v>9366353115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3587,7 +3661,7 @@
         <v>12869946981</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3598,7 +3672,7 @@
         <v>95087461604</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3609,7 +3683,7 @@
         <v>50700406235</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>274</v>
       </c>
@@ -3620,7 +3694,7 @@
         <v>46083792032</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3631,7 +3705,7 @@
         <v>16797456</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3642,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3653,7 +3727,7 @@
         <v>4405317316</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3664,7 +3738,7 @@
         <v>-653069981</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -3675,7 +3749,7 @@
         <v>847569412</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3686,7 +3760,7 @@
         <v>41010985179</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3697,7 +3771,7 @@
         <v>28628497359</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -3708,7 +3782,7 @@
         <v>13950862248</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3719,7 +3793,7 @@
         <v>-2742737822</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -3730,7 +3804,7 @@
         <v>540760000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -3741,7 +3815,7 @@
         <v>-532575662</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -3752,7 +3826,7 @@
         <v>284643354</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -3763,7 +3837,7 @@
         <v>-202948883</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -3774,7 +3848,7 @@
         <v>261614530</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -3785,7 +3859,7 @@
         <v>-204656811</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -3796,7 +3870,7 @@
         <v>409728427</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -3807,7 +3881,7 @@
         <v>-284195430</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -3818,7 +3892,7 @@
         <v>123076455</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -3829,7 +3903,7 @@
         <v>-18170962</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -3840,7 +3914,7 @@
         <v>59138000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -3851,7 +3925,7 @@
         <v>-52385624</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -3862,7 +3936,7 @@
         <v>790336000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -3873,7 +3947,7 @@
         <v>1482512026</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -3884,7 +3958,7 @@
         <v>2663953</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -3895,7 +3969,7 @@
         <v>1343750962</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -3906,7 +3980,7 @@
         <v>136097111</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -3915,7 +3989,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -3926,7 +4000,7 @@
         <v>1893558164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,7 +4011,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -3948,7 +4022,7 @@
         <v>745171040</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -3959,7 +4033,7 @@
         <v>243087124</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -3970,7 +4044,7 @@
         <v>880000000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -3981,7 +4055,7 @@
         <v>233163412192</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -3992,7 +4066,7 @@
         <v>16383497187</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -4003,7 +4077,7 @@
         <v>3886691487</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -4014,7 +4088,7 @@
         <v>277323799</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -4025,7 +4099,7 @@
         <v>80751665</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -4036,7 +4110,7 @@
         <v>10650929912</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -4047,7 +4121,7 @@
         <v>558511591</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -4058,7 +4132,7 @@
         <v>350145210</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -4069,7 +4143,7 @@
         <v>479143523</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -4080,7 +4154,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -4091,7 +4165,7 @@
         <v>20124549820</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -4102,7 +4176,7 @@
         <v>20000000000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -4113,7 +4187,7 @@
         <v>9207131329</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -4124,7 +4198,7 @@
         <v>-9207131329</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -4135,7 +4209,7 @@
         <v>124549820</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -4146,7 +4220,7 @@
         <v>36508047007</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -4157,7 +4231,7 @@
         <v>2535151600</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -4168,7 +4242,7 @@
         <v>2535151600</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -4179,7 +4253,7 @@
         <v>102460575980</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -4190,7 +4264,7 @@
         <v>90107442400</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -4201,7 +4275,7 @@
         <v>12353133580</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -4212,7 +4286,7 @@
         <v>91659637605</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -4223,7 +4297,7 @@
         <v>1959821067</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -4234,7 +4308,7 @@
         <v>89699816538</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -4245,7 +4319,7 @@
         <v>1101188547</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -4256,7 +4330,7 @@
         <v>196655365185</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -4267,7 +4341,7 @@
         <v>233163412192</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,7 +4352,7 @@
         <v>13502324463</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -4289,7 +4363,7 @@
         <v>10143558450</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -4300,7 +4374,7 @@
         <v>3217766013</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -4311,7 +4385,7 @@
         <v>141000000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -4322,7 +4396,7 @@
         <v>6533015616</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -4333,7 +4407,7 @@
         <v>4916655502</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -4344,7 +4418,7 @@
         <v>1616360114</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -4355,7 +4429,7 @@
         <v>6969308847</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -4366,7 +4440,7 @@
         <v>6863966868</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -4377,7 +4451,7 @@
         <v>1785784316</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -4388,7 +4462,7 @@
         <v>90581841</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -4399,7 +4473,7 @@
         <v>93203318</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -4410,7 +4484,7 @@
         <v>255042825</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -4421,7 +4495,7 @@
         <v>84759032</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -4432,7 +4506,7 @@
         <v>43170481</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -4443,7 +4517,7 @@
         <v>11497253</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -4454,7 +4528,7 @@
         <v>1100052</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -4465,7 +4539,7 @@
         <v>24185881</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -4476,7 +4550,7 @@
         <v>10178486</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -4487,7 +4561,7 @@
         <v>242433438</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -4498,7 +4572,7 @@
         <v>8267625</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -4509,7 +4583,7 @@
         <v>10658749</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -4520,7 +4594,7 @@
         <v>3661757</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -4531,7 +4605,7 @@
         <v>2623673372</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -4542,7 +4616,7 @@
         <v>63600796</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -4553,7 +4627,7 @@
         <v>668052</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -4564,7 +4638,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -4575,7 +4649,7 @@
         <v>10448688</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -4586,7 +4660,7 @@
         <v>19699966</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -4597,7 +4671,7 @@
         <v>472763182</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -4608,7 +4682,7 @@
         <v>82923640</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -4619,7 +4693,7 @@
         <v>-38147983</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -4630,7 +4704,7 @@
         <v>19089017</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -4641,7 +4715,7 @@
         <v>909043084</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -4652,7 +4726,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -4663,7 +4737,7 @@
         <v>105341979</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -4674,7 +4748,7 @@
         <v>3453227830</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -4685,7 +4759,7 @@
         <v>2303727457</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -4696,7 +4770,7 @@
         <v>234000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -4707,7 +4781,7 @@
         <v>49081857</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4718,7 +4792,7 @@
         <v>338338606</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -4729,7 +4803,7 @@
         <v>96116408</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -4740,7 +4814,7 @@
         <v>640510880</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -4751,7 +4825,7 @@
         <v>25218622</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -4762,7 +4836,7 @@
         <v>2169266945</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -4773,7 +4847,7 @@
         <v>354060404</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -4784,7 +4858,7 @@
         <v>41820000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -4795,7 +4869,7 @@
         <v>887035847</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -4806,7 +4880,7 @@
         <v>30525211</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -4817,7 +4891,7 @@
         <v>62265864</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -4828,7 +4902,7 @@
         <v>793559619</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -4839,7 +4913,7 @@
         <v>1389302864</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -4850,7 +4924,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -4861,7 +4935,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -4881,375 +4955,447 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="9" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G1" t="s">
+        <v>913</v>
+      </c>
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="B2" s="13">
         <v>0.6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>889</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>890</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C5" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>891</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="C6" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17">
+        <v>1101188547</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="18">
+        <f>ROUND(H6*0.4,)</f>
+        <v>440475419</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="18">
+        <f>ROUND(-G7/5,)</f>
+        <v>-88095084</v>
+      </c>
+      <c r="H8" s="18">
+        <f>-G8</f>
+        <v>88095084</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>940</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>900</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>944</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="C18" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C19" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="C20" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>904</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C21" s="16" t="s">
+        <v>948</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>905</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C22" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="C23" s="16" t="s">
         <v>908</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5261,18 +5407,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C312"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.92578125" customWidth="1"/>
-    <col min="2" max="2" width="40.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.0703125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>276</v>
       </c>
@@ -5283,7 +5427,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>279</v>
       </c>
@@ -5294,7 +5438,7 @@
         <v>1101188547</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>280</v>
       </c>
@@ -5305,7 +5449,7 @@
         <v>371637726</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>281</v>
       </c>
@@ -5313,7 +5457,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>283</v>
       </c>
@@ -5324,7 +5468,7 @@
         <v>19089017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>285</v>
       </c>
@@ -5335,7 +5479,7 @@
         <v>251330743</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>286</v>
       </c>
@@ -5343,7 +5487,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>288</v>
       </c>
@@ -5354,7 +5498,7 @@
         <v>793559619</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>289</v>
       </c>
@@ -5362,7 +5506,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>291</v>
       </c>
@@ -5370,7 +5514,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>293</v>
       </c>
@@ -5378,7 +5522,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>295</v>
       </c>
@@ -5386,7 +5530,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>297</v>
       </c>
@@ -5394,7 +5538,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>299</v>
       </c>
@@ -5402,7 +5546,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>300</v>
       </c>
@@ -5410,7 +5554,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>302</v>
       </c>
@@ -5418,7 +5562,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>304</v>
       </c>
@@ -5426,7 +5570,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>306</v>
       </c>
@@ -5434,7 +5578,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>308</v>
       </c>
@@ -5442,7 +5586,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>310</v>
       </c>
@@ -5450,7 +5594,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>312</v>
       </c>
@@ -5458,7 +5602,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>314</v>
       </c>
@@ -5466,7 +5610,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>316</v>
       </c>
@@ -5474,7 +5618,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>318</v>
       </c>
@@ -5482,7 +5626,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>320</v>
       </c>
@@ -5490,7 +5634,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>322</v>
       </c>
@@ -5498,7 +5642,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>324</v>
       </c>
@@ -5506,7 +5650,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>326</v>
       </c>
@@ -5514,7 +5658,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>328</v>
       </c>
@@ -5522,7 +5666,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>330</v>
       </c>
@@ -5530,7 +5674,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>332</v>
       </c>
@@ -5538,7 +5682,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>334</v>
       </c>
@@ -5546,7 +5690,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>336</v>
       </c>
@@ -5554,7 +5698,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>338</v>
       </c>
@@ -5562,7 +5706,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>340</v>
       </c>
@@ -5570,7 +5714,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>342</v>
       </c>
@@ -5578,7 +5722,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>344</v>
       </c>
@@ -5586,7 +5730,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>346</v>
       </c>
@@ -5594,7 +5738,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>348</v>
       </c>
@@ -5602,7 +5746,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>350</v>
       </c>
@@ -5610,7 +5754,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>352</v>
       </c>
@@ -5621,7 +5765,7 @@
         <v>-38147983</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>354</v>
       </c>
@@ -5629,7 +5773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>356</v>
       </c>
@@ -5637,7 +5781,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>358</v>
       </c>
@@ -5645,7 +5789,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>360</v>
       </c>
@@ -5656,7 +5800,7 @@
         <v>-69524133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>362</v>
       </c>
@@ -5664,7 +5808,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>364</v>
       </c>
@@ -5672,7 +5816,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>366</v>
       </c>
@@ -5680,7 +5824,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>368</v>
       </c>
@@ -5688,7 +5832,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>370</v>
       </c>
@@ -5696,7 +5840,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>371</v>
       </c>
@@ -5707,7 +5851,7 @@
         <v>354060404</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>372</v>
       </c>
@@ -5718,7 +5862,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>373</v>
       </c>
@@ -5726,7 +5870,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>375</v>
       </c>
@@ -5734,7 +5878,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>377</v>
       </c>
@@ -5742,7 +5886,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>379</v>
       </c>
@@ -5750,7 +5894,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>381</v>
       </c>
@@ -5758,7 +5902,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>383</v>
       </c>
@@ -5766,7 +5910,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>385</v>
       </c>
@@ -5777,7 +5921,7 @@
         <v>41820000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>387</v>
       </c>
@@ -5785,7 +5929,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>389</v>
       </c>
@@ -5796,7 +5940,7 @@
         <v>-25218622</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>390</v>
       </c>
@@ -5804,7 +5948,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>392</v>
       </c>
@@ -5812,7 +5956,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>394</v>
       </c>
@@ -5820,7 +5964,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>396</v>
       </c>
@@ -5828,7 +5972,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>398</v>
       </c>
@@ -5836,7 +5980,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>400</v>
       </c>
@@ -5847,7 +5991,7 @@
         <v>887035847</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>402</v>
       </c>
@@ -5855,7 +5999,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>404</v>
       </c>
@@ -5863,7 +6007,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>406</v>
       </c>
@@ -5871,7 +6015,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>408</v>
       </c>
@@ -5879,7 +6023,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>410</v>
       </c>
@@ -5887,7 +6031,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>412</v>
       </c>
@@ -5898,7 +6042,7 @@
         <v>-338338606</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>414</v>
       </c>
@@ -5906,7 +6050,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>416</v>
       </c>
@@ -5914,7 +6058,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>418</v>
       </c>
@@ -5922,7 +6066,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>420</v>
       </c>
@@ -5930,7 +6074,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>422</v>
       </c>
@@ -5938,7 +6082,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>424</v>
       </c>
@@ -5946,7 +6090,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>426</v>
       </c>
@@ -5954,7 +6098,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>428</v>
       </c>
@@ -5962,7 +6106,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>430</v>
       </c>
@@ -5970,7 +6114,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>432</v>
       </c>
@@ -5978,7 +6122,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>434</v>
       </c>
@@ -5986,7 +6130,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>436</v>
       </c>
@@ -5994,7 +6138,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>438</v>
       </c>
@@ -6002,7 +6146,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>440</v>
       </c>
@@ -6010,7 +6154,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>442</v>
       </c>
@@ -6018,7 +6162,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>444</v>
       </c>
@@ -6026,7 +6170,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>446</v>
       </c>
@@ -6034,7 +6178,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>448</v>
       </c>
@@ -6042,7 +6186,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>450</v>
       </c>
@@ -6050,7 +6194,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>452</v>
       </c>
@@ -6058,7 +6202,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>454</v>
       </c>
@@ -6066,7 +6210,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>456</v>
       </c>
@@ -6074,7 +6218,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>458</v>
       </c>
@@ -6085,7 +6229,7 @@
         <v>-2303727457</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>459</v>
       </c>
@@ -6093,7 +6237,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>461</v>
       </c>
@@ -6101,7 +6245,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>463</v>
       </c>
@@ -6112,7 +6256,7 @@
         <v>-49081857</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>465</v>
       </c>
@@ -6121,7 +6265,7 @@
       </c>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>467</v>
       </c>
@@ -6129,7 +6273,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>469</v>
       </c>
@@ -6137,7 +6281,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>471</v>
       </c>
@@ -6145,7 +6289,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>473</v>
       </c>
@@ -6153,7 +6297,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>475</v>
       </c>
@@ -6161,7 +6305,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>477</v>
       </c>
@@ -6169,7 +6313,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>479</v>
       </c>
@@ -6177,7 +6321,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>481</v>
       </c>
@@ -6188,7 +6332,7 @@
         <v>-709461461</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>483</v>
       </c>
@@ -6199,7 +6343,7 @@
         <v>116062667</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>485</v>
       </c>
@@ -6207,7 +6351,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>487</v>
       </c>
@@ -6218,7 +6362,7 @@
         <v>-691815072</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>489</v>
       </c>
@@ -6226,7 +6370,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>491</v>
       </c>
@@ -6237,7 +6381,7 @@
         <v>-16016763</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>493</v>
       </c>
@@ -6245,7 +6389,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>495</v>
       </c>
@@ -6253,7 +6397,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>497</v>
       </c>
@@ -6261,7 +6405,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>499</v>
       </c>
@@ -6272,7 +6416,7 @@
         <v>-5826947051</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>501</v>
       </c>
@@ -6280,7 +6424,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>503</v>
       </c>
@@ -6288,7 +6432,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>505</v>
       </c>
@@ -6296,7 +6440,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>507</v>
       </c>
@@ -6304,7 +6448,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>509</v>
       </c>
@@ -6312,7 +6456,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>511</v>
       </c>
@@ -6320,7 +6464,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>513</v>
       </c>
@@ -6328,7 +6472,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>515</v>
       </c>
@@ -6336,7 +6480,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>517</v>
       </c>
@@ -6347,7 +6491,7 @@
         <v>2580365141</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>519</v>
       </c>
@@ -6358,7 +6502,7 @@
         <v>10007084537</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>521</v>
       </c>
@@ -6369,7 +6513,7 @@
         <v>-85499010</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>523</v>
       </c>
@@ -6377,7 +6521,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>525</v>
       </c>
@@ -6388,7 +6532,7 @@
         <v>170282056</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>527</v>
       </c>
@@ -6399,7 +6543,7 @@
         <v>28646639</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>529</v>
       </c>
@@ -6407,7 +6551,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>531</v>
       </c>
@@ -6415,7 +6559,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>533</v>
       </c>
@@ -6423,7 +6567,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>535</v>
       </c>
@@ -6431,7 +6575,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>537</v>
       </c>
@@ -6439,7 +6583,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>539</v>
       </c>
@@ -6447,7 +6591,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>541</v>
       </c>
@@ -6458,7 +6602,7 @@
         <v>453608635</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>543</v>
       </c>
@@ -6466,7 +6610,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>545</v>
       </c>
@@ -6474,7 +6618,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>547</v>
       </c>
@@ -6482,7 +6626,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>549</v>
       </c>
@@ -6490,7 +6634,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>551</v>
       </c>
@@ -6498,7 +6642,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>553</v>
       </c>
@@ -6509,7 +6653,7 @@
         <v>-453608635</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>555</v>
       </c>
@@ -6517,7 +6661,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>557</v>
       </c>
@@ -6525,7 +6669,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>559</v>
       </c>
@@ -6533,7 +6677,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>561</v>
       </c>
@@ -6541,7 +6685,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>563</v>
       </c>
@@ -6549,7 +6693,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>565</v>
       </c>
@@ -6557,7 +6701,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>567</v>
       </c>
@@ -6565,7 +6709,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>569</v>
       </c>
@@ -6573,7 +6717,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>571</v>
       </c>
@@ -6581,7 +6725,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>573</v>
       </c>
@@ -6589,7 +6733,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>575</v>
       </c>
@@ -6597,7 +6741,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>577</v>
       </c>
@@ -6605,7 +6749,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>579</v>
       </c>
@@ -6613,7 +6757,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>581</v>
       </c>
@@ -6624,7 +6768,7 @@
         <v>6751985480</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>583</v>
       </c>
@@ -6635,7 +6779,7 @@
         <v>-354060404</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>585</v>
       </c>
@@ -6646,7 +6790,7 @@
         <v>-1078587124</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>587</v>
       </c>
@@ -6654,7 +6798,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>589</v>
       </c>
@@ -6665,7 +6809,7 @@
         <v>108100000</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>591</v>
       </c>
@@ -6676,7 +6820,7 @@
         <v>110880000000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>593</v>
       </c>
@@ -6684,7 +6828,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>595</v>
       </c>
@@ -6692,7 +6836,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>597</v>
       </c>
@@ -6703,7 +6847,7 @@
         <v>7788825</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>599</v>
       </c>
@@ -6711,7 +6855,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>601</v>
       </c>
@@ -6722,7 +6866,7 @@
         <v>2186000</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>603</v>
       </c>
@@ -6730,7 +6874,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>605</v>
       </c>
@@ -6738,7 +6882,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>607</v>
       </c>
@@ -6746,7 +6890,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>609</v>
       </c>
@@ -6754,7 +6898,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>611</v>
       </c>
@@ -6762,7 +6906,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>613</v>
       </c>
@@ -6770,7 +6914,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>615</v>
       </c>
@@ -6778,7 +6922,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>617</v>
       </c>
@@ -6786,7 +6930,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>619</v>
       </c>
@@ -6797,7 +6941,7 @@
         <v>1187000000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>621</v>
       </c>
@@ -6805,7 +6949,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>623</v>
       </c>
@@ -6813,7 +6957,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>625</v>
       </c>
@@ -6821,7 +6965,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>627</v>
       </c>
@@ -6829,7 +6973,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>629</v>
       </c>
@@ -6837,7 +6981,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>631</v>
       </c>
@@ -6845,7 +6989,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>633</v>
       </c>
@@ -6853,7 +6997,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>635</v>
       </c>
@@ -6861,7 +7005,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>637</v>
       </c>
@@ -6869,7 +7013,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>639</v>
       </c>
@@ -6877,7 +7021,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>641</v>
       </c>
@@ -6885,7 +7029,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>643</v>
       </c>
@@ -6893,7 +7037,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>645</v>
       </c>
@@ -6901,7 +7045,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>647</v>
       </c>
@@ -6909,7 +7053,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>649</v>
       </c>
@@ -6917,7 +7061,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>651</v>
       </c>
@@ -6925,7 +7069,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>653</v>
       </c>
@@ -6933,7 +7077,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>655</v>
       </c>
@@ -6941,7 +7085,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>657</v>
       </c>
@@ -6949,7 +7093,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>659</v>
       </c>
@@ -6957,7 +7101,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>661</v>
       </c>
@@ -6965,7 +7109,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>663</v>
       </c>
@@ -6973,7 +7117,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>665</v>
       </c>
@@ -6981,7 +7125,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>667</v>
       </c>
@@ -6989,7 +7133,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>669</v>
       </c>
@@ -6997,7 +7141,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>671</v>
       </c>
@@ -7005,7 +7149,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>673</v>
       </c>
@@ -7013,7 +7157,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>675</v>
       </c>
@@ -7021,7 +7165,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>677</v>
       </c>
@@ -7029,7 +7173,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>679</v>
       </c>
@@ -7037,7 +7181,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>681</v>
       </c>
@@ -7045,7 +7189,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>683</v>
       </c>
@@ -7053,7 +7197,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>685</v>
       </c>
@@ -7064,7 +7208,7 @@
         <v>2041820000</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>687</v>
       </c>
@@ -7072,7 +7216,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>689</v>
       </c>
@@ -7080,7 +7224,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>691</v>
       </c>
@@ -7088,7 +7232,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>693</v>
       </c>
@@ -7096,7 +7240,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>695</v>
       </c>
@@ -7104,7 +7248,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>697</v>
       </c>
@@ -7115,7 +7259,7 @@
         <v>-65000000000</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>699</v>
       </c>
@@ -7123,7 +7267,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>701</v>
       </c>
@@ -7134,7 +7278,7 @@
         <v>-880000000</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>703</v>
       </c>
@@ -7143,7 +7287,7 @@
       </c>
       <c r="C219" s="7"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>705</v>
       </c>
@@ -7151,7 +7295,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>707</v>
       </c>
@@ -7160,7 +7304,7 @@
       </c>
       <c r="C221" s="7"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>709</v>
       </c>
@@ -7168,7 +7312,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>711</v>
       </c>
@@ -7176,7 +7320,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>713</v>
       </c>
@@ -7184,7 +7328,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>715</v>
       </c>
@@ -7192,7 +7336,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>717</v>
       </c>
@@ -7200,7 +7344,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>719</v>
       </c>
@@ -7208,7 +7352,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>721</v>
       </c>
@@ -7216,7 +7360,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>723</v>
       </c>
@@ -7224,7 +7368,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>725</v>
       </c>
@@ -7232,7 +7376,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>727</v>
       </c>
@@ -7240,7 +7384,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>729</v>
       </c>
@@ -7248,7 +7392,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>731</v>
       </c>
@@ -7256,7 +7400,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>733</v>
       </c>
@@ -7264,7 +7408,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>735</v>
       </c>
@@ -7272,7 +7416,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>737</v>
       </c>
@@ -7280,7 +7424,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>739</v>
       </c>
@@ -7288,7 +7432,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>741</v>
       </c>
@@ -7296,7 +7440,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>743</v>
       </c>
@@ -7304,7 +7448,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>745</v>
       </c>
@@ -7312,7 +7456,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>747</v>
       </c>
@@ -7323,7 +7467,7 @@
         <v>-26190732</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>749</v>
       </c>
@@ -7331,7 +7475,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>751</v>
       </c>
@@ -7339,7 +7483,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>753</v>
       </c>
@@ -7347,7 +7491,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>755</v>
       </c>
@@ -7355,7 +7499,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>757</v>
       </c>
@@ -7366,7 +7510,7 @@
         <v>-374536000</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>759</v>
       </c>
@@ -7374,7 +7518,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>761</v>
       </c>
@@ -7382,7 +7526,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>763</v>
       </c>
@@ -7390,7 +7534,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>765</v>
       </c>
@@ -7398,7 +7542,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>767</v>
       </c>
@@ -7406,7 +7550,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>769</v>
       </c>
@@ -7414,7 +7558,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>771</v>
       </c>
@@ -7422,7 +7566,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>773</v>
       </c>
@@ -7430,7 +7574,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>775</v>
       </c>
@@ -7438,7 +7582,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>777</v>
       </c>
@@ -7446,7 +7590,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>779</v>
       </c>
@@ -7454,7 +7598,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>781</v>
       </c>
@@ -7462,7 +7606,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>783</v>
       </c>
@@ -7470,7 +7614,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>785</v>
       </c>
@@ -7478,7 +7622,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>787</v>
       </c>
@@ -7486,7 +7630,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>789</v>
       </c>
@@ -7494,7 +7638,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>791</v>
       </c>
@@ -7502,7 +7646,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>793</v>
       </c>
@@ -7513,7 +7657,7 @@
         <v>-48072096175</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>795</v>
       </c>
@@ -7521,7 +7665,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>797</v>
       </c>
@@ -7529,7 +7673,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>799</v>
       </c>
@@ -7537,7 +7681,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>801</v>
       </c>
@@ -7545,7 +7689,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>803</v>
       </c>
@@ -7553,7 +7697,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>805</v>
       </c>
@@ -7561,7 +7705,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>807</v>
       </c>
@@ -7569,7 +7713,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>809</v>
       </c>
@@ -7577,7 +7721,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>811</v>
       </c>
@@ -7585,7 +7729,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>813</v>
       </c>
@@ -7593,7 +7737,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>815</v>
       </c>
@@ -7601,7 +7745,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>817</v>
       </c>
@@ -7609,7 +7753,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>819</v>
       </c>
@@ -7617,7 +7761,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>821</v>
       </c>
@@ -7628,7 +7772,7 @@
         <v>-25000000</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>823</v>
       </c>
@@ -7636,7 +7780,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>825</v>
       </c>
@@ -7644,7 +7788,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>827</v>
       </c>
@@ -7652,7 +7796,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>829</v>
       </c>
@@ -7660,7 +7804,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>831</v>
       </c>
@@ -7668,7 +7812,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>833</v>
       </c>
@@ -7676,7 +7820,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>835</v>
       </c>
@@ -7684,7 +7828,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>837</v>
       </c>
@@ -7692,7 +7836,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>839</v>
       </c>
@@ -7700,7 +7844,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>841</v>
       </c>
@@ -7708,7 +7852,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>843</v>
       </c>
@@ -7716,7 +7860,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>845</v>
       </c>
@@ -7724,7 +7868,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>847</v>
       </c>
@@ -7732,7 +7876,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>849</v>
       </c>
@@ -7740,7 +7884,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>851</v>
       </c>
@@ -7748,7 +7892,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>853</v>
       </c>
@@ -7756,7 +7900,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>855</v>
       </c>
@@ -7764,7 +7908,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>856</v>
       </c>
@@ -7772,7 +7916,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>857</v>
       </c>
@@ -7780,7 +7924,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>859</v>
       </c>
@@ -7788,7 +7932,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>861</v>
       </c>
@@ -7796,7 +7940,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>863</v>
       </c>
@@ -7807,7 +7951,7 @@
         <v>-10140606400</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>865</v>
       </c>
@@ -7815,7 +7959,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>867</v>
       </c>
@@ -7823,7 +7967,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>869</v>
       </c>
@@ -7831,7 +7975,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>871</v>
       </c>
@@ -7839,7 +7983,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>873</v>
       </c>
@@ -7847,7 +7991,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>875</v>
       </c>
@@ -7855,7 +7999,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>877</v>
       </c>
@@ -7866,7 +8010,7 @@
         <v>-382394201</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>879</v>
       </c>
@@ -7874,7 +8018,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>881</v>
       </c>
@@ -7882,7 +8026,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>883</v>
       </c>
@@ -7893,7 +8037,7 @@
         <v>20148144654</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>885</v>
       </c>
@@ -7904,7 +8048,7 @@
         <v>21650053168</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>887</v>
       </c>

--- a/자회사A_FS.xlsx
+++ b/자회사A_FS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hwan-Hee Hyeong\Documents\OneDrive\문서\2025 Others\st_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhhye\OneDrive\문서\2025 Others\st_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BSPL" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="948">
   <si>
     <t>1100</t>
   </si>
@@ -2803,6 +2803,109 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>회사명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE10_NI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE30_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE40_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE50_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE60_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE70_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE80_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE90_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE100_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE110_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE120_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE130_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE140_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE150_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1000_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1010_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201100</t>
+  </si>
+  <si>
+    <t>조정코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>계정코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2824,114 +2927,6 @@
   </si>
   <si>
     <t>3500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조정코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE10_NI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE30_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE40_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE50_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE60_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE70_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE80_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE90_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE100_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE110_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE120_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE130_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE140_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE150_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE1000_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE1010_CT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3387,17 +3382,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.2109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -3408,7 +3403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3414,7 @@
         <v>138075950588</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3430,7 +3425,7 @@
         <v>114011958774</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3441,7 +3436,7 @@
         <v>8832005</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3452,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3463,7 +3458,7 @@
         <v>21641221163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3474,7 +3469,7 @@
         <v>71000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3485,7 +3480,7 @@
         <v>13128202573</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3496,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>872058000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3518,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3529,7 +3524,7 @@
         <v>548098300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3540,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3551,7 +3546,7 @@
         <v>777270942</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3573,7 +3568,7 @@
         <v>2960000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3584,7 +3579,7 @@
         <v>711032953</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3595,7 +3590,7 @@
         <v>756757177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3606,7 +3601,7 @@
         <v>1584159000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3617,7 +3612,7 @@
         <v>24326661</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3628,7 +3623,7 @@
         <v>24063991814</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3639,7 +3634,7 @@
         <v>1827691718</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3645,7 @@
         <v>9366353115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3661,7 +3656,7 @@
         <v>12869946981</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3672,7 +3667,7 @@
         <v>95087461604</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>50700406235</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>274</v>
       </c>
@@ -3694,7 +3689,7 @@
         <v>46083792032</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3705,7 +3700,7 @@
         <v>16797456</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3716,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>4405317316</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3738,7 +3733,7 @@
         <v>-653069981</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -3749,7 +3744,7 @@
         <v>847569412</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3760,7 +3755,7 @@
         <v>41010985179</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3771,7 +3766,7 @@
         <v>28628497359</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -3782,7 +3777,7 @@
         <v>13950862248</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3793,7 +3788,7 @@
         <v>-2742737822</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -3804,7 +3799,7 @@
         <v>540760000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -3815,7 +3810,7 @@
         <v>-532575662</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3821,7 @@
         <v>284643354</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -3837,7 +3832,7 @@
         <v>-202948883</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -3848,7 +3843,7 @@
         <v>261614530</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -3859,7 +3854,7 @@
         <v>-204656811</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -3870,7 +3865,7 @@
         <v>409728427</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -3881,7 +3876,7 @@
         <v>-284195430</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -3892,7 +3887,7 @@
         <v>123076455</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -3903,7 +3898,7 @@
         <v>-18170962</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -3914,7 +3909,7 @@
         <v>59138000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -3925,7 +3920,7 @@
         <v>-52385624</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -3936,7 +3931,7 @@
         <v>790336000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>1482512026</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -3958,7 +3953,7 @@
         <v>2663953</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -3969,7 +3964,7 @@
         <v>1343750962</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -3980,7 +3975,7 @@
         <v>136097111</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -3989,7 +3984,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -4000,7 +3995,7 @@
         <v>1893558164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -4011,7 +4006,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -4022,7 +4017,7 @@
         <v>745171040</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -4033,7 +4028,7 @@
         <v>243087124</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -4044,7 +4039,7 @@
         <v>880000000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -4055,7 +4050,7 @@
         <v>233163412192</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -4066,7 +4061,7 @@
         <v>16383497187</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -4077,7 +4072,7 @@
         <v>3886691487</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -4088,7 +4083,7 @@
         <v>277323799</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -4099,7 +4094,7 @@
         <v>80751665</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -4110,7 +4105,7 @@
         <v>10650929912</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,7 +4116,7 @@
         <v>558511591</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -4132,7 +4127,7 @@
         <v>350145210</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -4143,7 +4138,7 @@
         <v>479143523</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -4154,7 +4149,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -4165,7 +4160,7 @@
         <v>20124549820</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -4176,7 +4171,7 @@
         <v>20000000000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -4187,7 +4182,7 @@
         <v>9207131329</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -4198,7 +4193,7 @@
         <v>-9207131329</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -4209,7 +4204,7 @@
         <v>124549820</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -4220,7 +4215,7 @@
         <v>36508047007</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -4231,7 +4226,7 @@
         <v>2535151600</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -4242,7 +4237,7 @@
         <v>2535151600</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -4253,7 +4248,7 @@
         <v>102460575980</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -4264,7 +4259,7 @@
         <v>90107442400</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -4275,7 +4270,7 @@
         <v>12353133580</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -4286,7 +4281,7 @@
         <v>91659637605</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -4297,7 +4292,7 @@
         <v>1959821067</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -4308,7 +4303,7 @@
         <v>89699816538</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -4319,7 +4314,7 @@
         <v>1101188547</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -4330,7 +4325,7 @@
         <v>196655365185</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -4341,7 +4336,7 @@
         <v>233163412192</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -4352,7 +4347,7 @@
         <v>13502324463</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -4363,7 +4358,7 @@
         <v>10143558450</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -4374,7 +4369,7 @@
         <v>3217766013</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -4385,7 +4380,7 @@
         <v>141000000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -4396,7 +4391,7 @@
         <v>6533015616</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -4407,7 +4402,7 @@
         <v>4916655502</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -4418,7 +4413,7 @@
         <v>1616360114</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -4429,7 +4424,7 @@
         <v>6969308847</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -4440,7 +4435,7 @@
         <v>6863966868</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -4451,7 +4446,7 @@
         <v>1785784316</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -4462,7 +4457,7 @@
         <v>90581841</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -4473,7 +4468,7 @@
         <v>93203318</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -4484,7 +4479,7 @@
         <v>255042825</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -4495,7 +4490,7 @@
         <v>84759032</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -4506,7 +4501,7 @@
         <v>43170481</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -4517,7 +4512,7 @@
         <v>11497253</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -4528,7 +4523,7 @@
         <v>1100052</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -4539,7 +4534,7 @@
         <v>24185881</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -4550,7 +4545,7 @@
         <v>10178486</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -4561,7 +4556,7 @@
         <v>242433438</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -4572,7 +4567,7 @@
         <v>8267625</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -4583,7 +4578,7 @@
         <v>10658749</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -4594,7 +4589,7 @@
         <v>3661757</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -4605,7 +4600,7 @@
         <v>2623673372</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -4616,7 +4611,7 @@
         <v>63600796</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -4627,7 +4622,7 @@
         <v>668052</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -4638,7 +4633,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -4649,7 +4644,7 @@
         <v>10448688</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -4660,7 +4655,7 @@
         <v>19699966</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -4671,7 +4666,7 @@
         <v>472763182</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -4682,7 +4677,7 @@
         <v>82923640</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -4693,7 +4688,7 @@
         <v>-38147983</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -4704,7 +4699,7 @@
         <v>19089017</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -4715,7 +4710,7 @@
         <v>909043084</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -4726,7 +4721,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -4737,7 +4732,7 @@
         <v>105341979</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -4748,7 +4743,7 @@
         <v>3453227830</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -4759,7 +4754,7 @@
         <v>2303727457</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -4770,7 +4765,7 @@
         <v>234000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -4781,7 +4776,7 @@
         <v>49081857</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4792,7 +4787,7 @@
         <v>338338606</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -4803,7 +4798,7 @@
         <v>96116408</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -4814,7 +4809,7 @@
         <v>640510880</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -4825,7 +4820,7 @@
         <v>25218622</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -4836,7 +4831,7 @@
         <v>2169266945</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -4847,7 +4842,7 @@
         <v>354060404</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -4858,7 +4853,7 @@
         <v>41820000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -4869,7 +4864,7 @@
         <v>887035847</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -4880,7 +4875,7 @@
         <v>30525211</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -4891,7 +4886,7 @@
         <v>62265864</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -4902,7 +4897,7 @@
         <v>793559619</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -4913,7 +4908,7 @@
         <v>1389302864</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -4924,7 +4919,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -4935,7 +4930,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -4957,18 +4952,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.35546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="9" width="17.875" customWidth="1"/>
+    <col min="4" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
         <v>192</v>
       </c>
@@ -4988,7 +4983,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>915</v>
       </c>
@@ -4996,57 +4991,57 @@
         <v>0.6</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>916</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>917</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>919</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>920</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>921</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>924</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>927</v>
+        <v>944</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>930</v>
+        <v>947</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
         <v>909</v>
       </c>
@@ -5063,7 +5058,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
         <v>909</v>
       </c>
@@ -5071,7 +5066,7 @@
         <v>890</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5080,7 +5075,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
         <v>909</v>
       </c>
@@ -5088,7 +5083,7 @@
         <v>891</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5099,7 +5094,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
         <v>909</v>
       </c>
@@ -5107,7 +5102,7 @@
         <v>892</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -5119,7 +5114,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
         <v>909</v>
       </c>
@@ -5127,7 +5122,7 @@
         <v>893</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -5142,7 +5137,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
         <v>909</v>
       </c>
@@ -5150,7 +5145,7 @@
         <v>906</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -5159,7 +5154,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
         <v>909</v>
       </c>
@@ -5167,7 +5162,7 @@
         <v>894</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -5176,7 +5171,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
         <v>909</v>
       </c>
@@ -5184,7 +5179,7 @@
         <v>895</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -5193,7 +5188,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15" t="s">
         <v>909</v>
       </c>
@@ -5201,7 +5196,7 @@
         <v>896</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -5210,7 +5205,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15" t="s">
         <v>909</v>
       </c>
@@ -5218,7 +5213,7 @@
         <v>897</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -5227,7 +5222,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
         <v>909</v>
       </c>
@@ -5235,7 +5230,7 @@
         <v>898</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -5244,7 +5239,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15" t="s">
         <v>909</v>
       </c>
@@ -5252,7 +5247,7 @@
         <v>345</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -5261,7 +5256,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
         <v>909</v>
       </c>
@@ -5269,7 +5264,7 @@
         <v>899</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -5278,7 +5273,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
         <v>909</v>
       </c>
@@ -5286,7 +5281,7 @@
         <v>900</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -5295,7 +5290,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
         <v>909</v>
       </c>
@@ -5303,7 +5298,7 @@
         <v>901</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -5312,7 +5307,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15" t="s">
         <v>909</v>
       </c>
@@ -5320,7 +5315,7 @@
         <v>902</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -5329,7 +5324,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15" t="s">
         <v>909</v>
       </c>
@@ -5337,7 +5332,7 @@
         <v>903</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -5346,7 +5341,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15" t="s">
         <v>909</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>904</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -5363,7 +5358,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15" t="s">
         <v>909</v>
       </c>
@@ -5380,7 +5375,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15" t="s">
         <v>909</v>
       </c>
@@ -5409,14 +5404,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>276</v>
       </c>
@@ -5427,7 +5422,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>279</v>
       </c>
@@ -5438,7 +5433,7 @@
         <v>1101188547</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>280</v>
       </c>
@@ -5449,7 +5444,7 @@
         <v>371637726</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>281</v>
       </c>
@@ -5457,7 +5452,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>283</v>
       </c>
@@ -5468,7 +5463,7 @@
         <v>19089017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>285</v>
       </c>
@@ -5479,7 +5474,7 @@
         <v>251330743</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>286</v>
       </c>
@@ -5487,7 +5482,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>288</v>
       </c>
@@ -5498,7 +5493,7 @@
         <v>793559619</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>289</v>
       </c>
@@ -5506,7 +5501,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>291</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>293</v>
       </c>
@@ -5522,7 +5517,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>295</v>
       </c>
@@ -5530,7 +5525,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>297</v>
       </c>
@@ -5538,7 +5533,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>299</v>
       </c>
@@ -5546,7 +5541,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>300</v>
       </c>
@@ -5554,7 +5549,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>302</v>
       </c>
@@ -5562,7 +5557,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>304</v>
       </c>
@@ -5570,7 +5565,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>306</v>
       </c>
@@ -5578,7 +5573,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>308</v>
       </c>
@@ -5586,7 +5581,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>310</v>
       </c>
@@ -5594,7 +5589,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>312</v>
       </c>
@@ -5602,7 +5597,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>314</v>
       </c>
@@ -5610,7 +5605,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>316</v>
       </c>
@@ -5618,7 +5613,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>318</v>
       </c>
@@ -5626,7 +5621,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>320</v>
       </c>
@@ -5634,7 +5629,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>322</v>
       </c>
@@ -5642,7 +5637,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
         <v>324</v>
       </c>
@@ -5650,7 +5645,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>326</v>
       </c>
@@ -5658,7 +5653,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
         <v>328</v>
       </c>
@@ -5666,7 +5661,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>330</v>
       </c>
@@ -5674,7 +5669,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>332</v>
       </c>
@@ -5682,7 +5677,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>334</v>
       </c>
@@ -5690,7 +5685,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>336</v>
       </c>
@@ -5698,7 +5693,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>338</v>
       </c>
@@ -5706,7 +5701,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>340</v>
       </c>
@@ -5714,7 +5709,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>342</v>
       </c>
@@ -5722,7 +5717,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
         <v>344</v>
       </c>
@@ -5730,7 +5725,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>346</v>
       </c>
@@ -5738,7 +5733,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
         <v>348</v>
       </c>
@@ -5746,7 +5741,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
         <v>350</v>
       </c>
@@ -5754,7 +5749,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
         <v>352</v>
       </c>
@@ -5765,7 +5760,7 @@
         <v>-38147983</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6" t="s">
         <v>354</v>
       </c>
@@ -5773,7 +5768,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6" t="s">
         <v>356</v>
       </c>
@@ -5781,7 +5776,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6" t="s">
         <v>358</v>
       </c>
@@ -5789,7 +5784,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6" t="s">
         <v>360</v>
       </c>
@@ -5800,7 +5795,7 @@
         <v>-69524133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6" t="s">
         <v>362</v>
       </c>
@@ -5808,7 +5803,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6" t="s">
         <v>364</v>
       </c>
@@ -5816,7 +5811,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
         <v>366</v>
       </c>
@@ -5824,7 +5819,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
         <v>368</v>
       </c>
@@ -5832,7 +5827,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6" t="s">
         <v>370</v>
       </c>
@@ -5840,7 +5835,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6" t="s">
         <v>371</v>
       </c>
@@ -5851,7 +5846,7 @@
         <v>354060404</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6" t="s">
         <v>372</v>
       </c>
@@ -5862,7 +5857,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6" t="s">
         <v>373</v>
       </c>
@@ -5870,7 +5865,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6" t="s">
         <v>375</v>
       </c>
@@ -5878,7 +5873,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6" t="s">
         <v>377</v>
       </c>
@@ -5886,7 +5881,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6" t="s">
         <v>379</v>
       </c>
@@ -5894,7 +5889,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6" t="s">
         <v>381</v>
       </c>
@@ -5902,7 +5897,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6" t="s">
         <v>383</v>
       </c>
@@ -5910,7 +5905,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6" t="s">
         <v>385</v>
       </c>
@@ -5921,7 +5916,7 @@
         <v>41820000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6" t="s">
         <v>387</v>
       </c>
@@ -5929,7 +5924,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6" t="s">
         <v>389</v>
       </c>
@@ -5940,7 +5935,7 @@
         <v>-25218622</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6" t="s">
         <v>390</v>
       </c>
@@ -5948,7 +5943,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6" t="s">
         <v>392</v>
       </c>
@@ -5956,7 +5951,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6" t="s">
         <v>394</v>
       </c>
@@ -5964,7 +5959,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6" t="s">
         <v>396</v>
       </c>
@@ -5972,7 +5967,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6" t="s">
         <v>398</v>
       </c>
@@ -5980,7 +5975,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6" t="s">
         <v>400</v>
       </c>
@@ -5991,7 +5986,7 @@
         <v>887035847</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="6" t="s">
         <v>402</v>
       </c>
@@ -5999,7 +5994,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="6" t="s">
         <v>404</v>
       </c>
@@ -6007,7 +6002,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6" t="s">
         <v>406</v>
       </c>
@@ -6015,7 +6010,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="6" t="s">
         <v>408</v>
       </c>
@@ -6023,7 +6018,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6" t="s">
         <v>410</v>
       </c>
@@ -6031,7 +6026,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6" t="s">
         <v>412</v>
       </c>
@@ -6042,7 +6037,7 @@
         <v>-338338606</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6" t="s">
         <v>414</v>
       </c>
@@ -6050,7 +6045,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6" t="s">
         <v>416</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6" t="s">
         <v>418</v>
       </c>
@@ -6066,7 +6061,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6" t="s">
         <v>420</v>
       </c>
@@ -6074,7 +6069,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6" t="s">
         <v>422</v>
       </c>
@@ -6082,7 +6077,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
         <v>424</v>
       </c>
@@ -6090,7 +6085,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
         <v>426</v>
       </c>
@@ -6098,7 +6093,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
         <v>428</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6" t="s">
         <v>430</v>
       </c>
@@ -6114,7 +6109,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6" t="s">
         <v>432</v>
       </c>
@@ -6122,7 +6117,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="6" t="s">
         <v>434</v>
       </c>
@@ -6130,7 +6125,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
         <v>436</v>
       </c>
@@ -6138,7 +6133,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
         <v>438</v>
       </c>
@@ -6146,7 +6141,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
         <v>440</v>
       </c>
@@ -6154,7 +6149,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6" t="s">
         <v>442</v>
       </c>
@@ -6162,7 +6157,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6" t="s">
         <v>444</v>
       </c>
@@ -6170,7 +6165,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6" t="s">
         <v>446</v>
       </c>
@@ -6178,7 +6173,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
         <v>448</v>
       </c>
@@ -6186,7 +6181,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
         <v>450</v>
       </c>
@@ -6194,7 +6189,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
         <v>452</v>
       </c>
@@ -6202,7 +6197,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="6" t="s">
         <v>454</v>
       </c>
@@ -6210,7 +6205,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="6" t="s">
         <v>456</v>
       </c>
@@ -6218,7 +6213,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6" t="s">
         <v>458</v>
       </c>
@@ -6229,7 +6224,7 @@
         <v>-2303727457</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6" t="s">
         <v>459</v>
       </c>
@@ -6237,7 +6232,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
         <v>461</v>
       </c>
@@ -6245,7 +6240,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6" t="s">
         <v>463</v>
       </c>
@@ -6256,7 +6251,7 @@
         <v>-49081857</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="6" t="s">
         <v>465</v>
       </c>
@@ -6265,7 +6260,7 @@
       </c>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6" t="s">
         <v>467</v>
       </c>
@@ -6273,7 +6268,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
         <v>469</v>
       </c>
@@ -6281,7 +6276,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
         <v>471</v>
       </c>
@@ -6289,7 +6284,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
         <v>473</v>
       </c>
@@ -6297,7 +6292,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
         <v>475</v>
       </c>
@@ -6305,7 +6300,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6" t="s">
         <v>477</v>
       </c>
@@ -6313,7 +6308,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6" t="s">
         <v>479</v>
       </c>
@@ -6321,7 +6316,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6" t="s">
         <v>481</v>
       </c>
@@ -6332,7 +6327,7 @@
         <v>-709461461</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
         <v>483</v>
       </c>
@@ -6343,7 +6338,7 @@
         <v>116062667</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
         <v>485</v>
       </c>
@@ -6351,7 +6346,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
         <v>487</v>
       </c>
@@ -6362,7 +6357,7 @@
         <v>-691815072</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6" t="s">
         <v>489</v>
       </c>
@@ -6370,7 +6365,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6" t="s">
         <v>491</v>
       </c>
@@ -6381,7 +6376,7 @@
         <v>-16016763</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6" t="s">
         <v>493</v>
       </c>
@@ -6389,7 +6384,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6" t="s">
         <v>495</v>
       </c>
@@ -6397,7 +6392,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6" t="s">
         <v>497</v>
       </c>
@@ -6405,7 +6400,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6" t="s">
         <v>499</v>
       </c>
@@ -6416,7 +6411,7 @@
         <v>-5826947051</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6" t="s">
         <v>501</v>
       </c>
@@ -6424,7 +6419,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
         <v>503</v>
       </c>
@@ -6432,7 +6427,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6" t="s">
         <v>505</v>
       </c>
@@ -6440,7 +6435,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6" t="s">
         <v>507</v>
       </c>
@@ -6448,7 +6443,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
         <v>509</v>
       </c>
@@ -6456,7 +6451,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6" t="s">
         <v>511</v>
       </c>
@@ -6464,7 +6459,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6" t="s">
         <v>513</v>
       </c>
@@ -6472,7 +6467,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
         <v>515</v>
       </c>
@@ -6480,7 +6475,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
         <v>517</v>
       </c>
@@ -6491,7 +6486,7 @@
         <v>2580365141</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6" t="s">
         <v>519</v>
       </c>
@@ -6502,7 +6497,7 @@
         <v>10007084537</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6" t="s">
         <v>521</v>
       </c>
@@ -6513,7 +6508,7 @@
         <v>-85499010</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6" t="s">
         <v>523</v>
       </c>
@@ -6521,7 +6516,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
         <v>525</v>
       </c>
@@ -6532,7 +6527,7 @@
         <v>170282056</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="6" t="s">
         <v>527</v>
       </c>
@@ -6543,7 +6538,7 @@
         <v>28646639</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6" t="s">
         <v>529</v>
       </c>
@@ -6551,7 +6546,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6" t="s">
         <v>531</v>
       </c>
@@ -6559,7 +6554,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
         <v>533</v>
       </c>
@@ -6567,7 +6562,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="6" t="s">
         <v>535</v>
       </c>
@@ -6575,7 +6570,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="6" t="s">
         <v>537</v>
       </c>
@@ -6583,7 +6578,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="6" t="s">
         <v>539</v>
       </c>
@@ -6591,7 +6586,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="6" t="s">
         <v>541</v>
       </c>
@@ -6602,7 +6597,7 @@
         <v>453608635</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="6" t="s">
         <v>543</v>
       </c>
@@ -6610,7 +6605,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="6" t="s">
         <v>545</v>
       </c>
@@ -6618,7 +6613,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
         <v>547</v>
       </c>
@@ -6626,7 +6621,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
         <v>549</v>
       </c>
@@ -6634,7 +6629,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="6" t="s">
         <v>551</v>
       </c>
@@ -6642,7 +6637,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6" t="s">
         <v>553</v>
       </c>
@@ -6653,7 +6648,7 @@
         <v>-453608635</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="6" t="s">
         <v>555</v>
       </c>
@@ -6661,7 +6656,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6" t="s">
         <v>557</v>
       </c>
@@ -6669,7 +6664,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6" t="s">
         <v>559</v>
       </c>
@@ -6677,7 +6672,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="6" t="s">
         <v>561</v>
       </c>
@@ -6685,7 +6680,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="6" t="s">
         <v>563</v>
       </c>
@@ -6693,7 +6688,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="6" t="s">
         <v>565</v>
       </c>
@@ -6701,7 +6696,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="6" t="s">
         <v>567</v>
       </c>
@@ -6709,7 +6704,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="6" t="s">
         <v>569</v>
       </c>
@@ -6717,7 +6712,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="6" t="s">
         <v>571</v>
       </c>
@@ -6725,7 +6720,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6" t="s">
         <v>573</v>
       </c>
@@ -6733,7 +6728,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="6" t="s">
         <v>575</v>
       </c>
@@ -6741,7 +6736,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="6" t="s">
         <v>577</v>
       </c>
@@ -6749,7 +6744,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="6" t="s">
         <v>579</v>
       </c>
@@ -6757,7 +6752,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="6" t="s">
         <v>581</v>
       </c>
@@ -6768,7 +6763,7 @@
         <v>6751985480</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="6" t="s">
         <v>583</v>
       </c>
@@ -6779,7 +6774,7 @@
         <v>-354060404</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="6" t="s">
         <v>585</v>
       </c>
@@ -6790,7 +6785,7 @@
         <v>-1078587124</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="6" t="s">
         <v>587</v>
       </c>
@@ -6798,7 +6793,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="6" t="s">
         <v>589</v>
       </c>
@@ -6809,7 +6804,7 @@
         <v>108100000</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6" t="s">
         <v>591</v>
       </c>
@@ -6820,7 +6815,7 @@
         <v>110880000000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="6" t="s">
         <v>593</v>
       </c>
@@ -6828,7 +6823,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="6" t="s">
         <v>595</v>
       </c>
@@ -6836,7 +6831,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="6" t="s">
         <v>597</v>
       </c>
@@ -6847,7 +6842,7 @@
         <v>7788825</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="6" t="s">
         <v>599</v>
       </c>
@@ -6855,7 +6850,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="6" t="s">
         <v>601</v>
       </c>
@@ -6866,7 +6861,7 @@
         <v>2186000</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="6" t="s">
         <v>603</v>
       </c>
@@ -6874,7 +6869,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="6" t="s">
         <v>605</v>
       </c>
@@ -6882,7 +6877,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="6" t="s">
         <v>607</v>
       </c>
@@ -6890,7 +6885,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="6" t="s">
         <v>609</v>
       </c>
@@ -6898,7 +6893,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="6" t="s">
         <v>611</v>
       </c>
@@ -6906,7 +6901,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="6" t="s">
         <v>613</v>
       </c>
@@ -6914,7 +6909,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="6" t="s">
         <v>615</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="6" t="s">
         <v>617</v>
       </c>
@@ -6930,7 +6925,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="6" t="s">
         <v>619</v>
       </c>
@@ -6941,7 +6936,7 @@
         <v>1187000000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="6" t="s">
         <v>621</v>
       </c>
@@ -6949,7 +6944,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="6" t="s">
         <v>623</v>
       </c>
@@ -6957,7 +6952,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="6" t="s">
         <v>625</v>
       </c>
@@ -6965,7 +6960,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="6" t="s">
         <v>627</v>
       </c>
@@ -6973,7 +6968,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="6" t="s">
         <v>629</v>
       </c>
@@ -6981,7 +6976,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="6" t="s">
         <v>631</v>
       </c>
@@ -6989,7 +6984,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="6" t="s">
         <v>633</v>
       </c>
@@ -6997,7 +6992,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="6" t="s">
         <v>635</v>
       </c>
@@ -7005,7 +7000,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="6" t="s">
         <v>637</v>
       </c>
@@ -7013,7 +7008,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="6" t="s">
         <v>639</v>
       </c>
@@ -7021,7 +7016,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="6" t="s">
         <v>641</v>
       </c>
@@ -7029,7 +7024,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="6" t="s">
         <v>643</v>
       </c>
@@ -7037,7 +7032,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="6" t="s">
         <v>645</v>
       </c>
@@ -7045,7 +7040,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="6" t="s">
         <v>647</v>
       </c>
@@ -7053,7 +7048,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="6" t="s">
         <v>649</v>
       </c>
@@ -7061,7 +7056,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="6" t="s">
         <v>651</v>
       </c>
@@ -7069,7 +7064,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="6" t="s">
         <v>653</v>
       </c>
@@ -7077,7 +7072,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="6" t="s">
         <v>655</v>
       </c>
@@ -7085,7 +7080,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="6" t="s">
         <v>657</v>
       </c>
@@ -7093,7 +7088,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="6" t="s">
         <v>659</v>
       </c>
@@ -7101,7 +7096,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="6" t="s">
         <v>661</v>
       </c>
@@ -7109,7 +7104,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="6" t="s">
         <v>663</v>
       </c>
@@ -7117,7 +7112,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="6" t="s">
         <v>665</v>
       </c>
@@ -7125,7 +7120,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="6" t="s">
         <v>667</v>
       </c>
@@ -7133,7 +7128,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="6" t="s">
         <v>669</v>
       </c>
@@ -7141,7 +7136,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="6" t="s">
         <v>671</v>
       </c>
@@ -7149,7 +7144,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="6" t="s">
         <v>673</v>
       </c>
@@ -7157,7 +7152,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="6" t="s">
         <v>675</v>
       </c>
@@ -7165,7 +7160,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="6" t="s">
         <v>677</v>
       </c>
@@ -7173,7 +7168,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="6" t="s">
         <v>679</v>
       </c>
@@ -7181,7 +7176,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="6" t="s">
         <v>681</v>
       </c>
@@ -7189,7 +7184,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="6" t="s">
         <v>683</v>
       </c>
@@ -7197,7 +7192,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="6" t="s">
         <v>685</v>
       </c>
@@ -7208,7 +7203,7 @@
         <v>2041820000</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="6" t="s">
         <v>687</v>
       </c>
@@ -7216,7 +7211,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="6" t="s">
         <v>689</v>
       </c>
@@ -7224,7 +7219,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="6" t="s">
         <v>691</v>
       </c>
@@ -7232,7 +7227,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="6" t="s">
         <v>693</v>
       </c>
@@ -7240,7 +7235,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="6" t="s">
         <v>695</v>
       </c>
@@ -7248,7 +7243,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="6" t="s">
         <v>697</v>
       </c>
@@ -7259,7 +7254,7 @@
         <v>-65000000000</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="6" t="s">
         <v>699</v>
       </c>
@@ -7267,7 +7262,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="6" t="s">
         <v>701</v>
       </c>
@@ -7278,7 +7273,7 @@
         <v>-880000000</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="6" t="s">
         <v>703</v>
       </c>
@@ -7287,7 +7282,7 @@
       </c>
       <c r="C219" s="7"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="6" t="s">
         <v>705</v>
       </c>
@@ -7295,7 +7290,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="6" t="s">
         <v>707</v>
       </c>
@@ -7304,7 +7299,7 @@
       </c>
       <c r="C221" s="7"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="6" t="s">
         <v>709</v>
       </c>
@@ -7312,7 +7307,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="6" t="s">
         <v>711</v>
       </c>
@@ -7320,7 +7315,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="6" t="s">
         <v>713</v>
       </c>
@@ -7328,7 +7323,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="6" t="s">
         <v>715</v>
       </c>
@@ -7336,7 +7331,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="6" t="s">
         <v>717</v>
       </c>
@@ -7344,7 +7339,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="6" t="s">
         <v>719</v>
       </c>
@@ -7352,7 +7347,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="6" t="s">
         <v>721</v>
       </c>
@@ -7360,7 +7355,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="6" t="s">
         <v>723</v>
       </c>
@@ -7368,7 +7363,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="6" t="s">
         <v>725</v>
       </c>
@@ -7376,7 +7371,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="6" t="s">
         <v>727</v>
       </c>
@@ -7384,7 +7379,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="6" t="s">
         <v>729</v>
       </c>
@@ -7392,7 +7387,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="6" t="s">
         <v>731</v>
       </c>
@@ -7400,7 +7395,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="6" t="s">
         <v>733</v>
       </c>
@@ -7408,7 +7403,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="6" t="s">
         <v>735</v>
       </c>
@@ -7416,7 +7411,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="6" t="s">
         <v>737</v>
       </c>
@@ -7424,7 +7419,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="6" t="s">
         <v>739</v>
       </c>
@@ -7432,7 +7427,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="6" t="s">
         <v>741</v>
       </c>
@@ -7440,7 +7435,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="6" t="s">
         <v>743</v>
       </c>
@@ -7448,7 +7443,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="6" t="s">
         <v>745</v>
       </c>
@@ -7456,7 +7451,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="6" t="s">
         <v>747</v>
       </c>
@@ -7467,7 +7462,7 @@
         <v>-26190732</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="6" t="s">
         <v>749</v>
       </c>
@@ -7475,7 +7470,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="6" t="s">
         <v>751</v>
       </c>
@@ -7483,7 +7478,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="6" t="s">
         <v>753</v>
       </c>
@@ -7491,7 +7486,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="6" t="s">
         <v>755</v>
       </c>
@@ -7499,7 +7494,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="6" t="s">
         <v>757</v>
       </c>
@@ -7510,7 +7505,7 @@
         <v>-374536000</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="6" t="s">
         <v>759</v>
       </c>
@@ -7518,7 +7513,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="6" t="s">
         <v>761</v>
       </c>
@@ -7526,7 +7521,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="6" t="s">
         <v>763</v>
       </c>
@@ -7534,7 +7529,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="6" t="s">
         <v>765</v>
       </c>
@@ -7542,7 +7537,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="6" t="s">
         <v>767</v>
       </c>
@@ -7550,7 +7545,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="6" t="s">
         <v>769</v>
       </c>
@@ -7558,7 +7553,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="6" t="s">
         <v>771</v>
       </c>
@@ -7566,7 +7561,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="6" t="s">
         <v>773</v>
       </c>
@@ -7574,7 +7569,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="6" t="s">
         <v>775</v>
       </c>
@@ -7582,7 +7577,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="6" t="s">
         <v>777</v>
       </c>
@@ -7590,7 +7585,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="6" t="s">
         <v>779</v>
       </c>
@@ -7598,7 +7593,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="6" t="s">
         <v>781</v>
       </c>
@@ -7606,7 +7601,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="6" t="s">
         <v>783</v>
       </c>
@@ -7614,7 +7609,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="6" t="s">
         <v>785</v>
       </c>
@@ -7622,7 +7617,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="6" t="s">
         <v>787</v>
       </c>
@@ -7630,7 +7625,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="6" t="s">
         <v>789</v>
       </c>
@@ -7638,7 +7633,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="6" t="s">
         <v>791</v>
       </c>
@@ -7646,7 +7641,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="6" t="s">
         <v>793</v>
       </c>
@@ -7657,7 +7652,7 @@
         <v>-48072096175</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="6" t="s">
         <v>795</v>
       </c>
@@ -7665,7 +7660,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="6" t="s">
         <v>797</v>
       </c>
@@ -7673,7 +7668,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="6" t="s">
         <v>799</v>
       </c>
@@ -7681,7 +7676,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="6" t="s">
         <v>801</v>
       </c>
@@ -7689,7 +7684,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="6" t="s">
         <v>803</v>
       </c>
@@ -7697,7 +7692,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="6" t="s">
         <v>805</v>
       </c>
@@ -7705,7 +7700,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="6" t="s">
         <v>807</v>
       </c>
@@ -7713,7 +7708,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="6" t="s">
         <v>809</v>
       </c>
@@ -7721,7 +7716,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="6" t="s">
         <v>811</v>
       </c>
@@ -7729,7 +7724,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="6" t="s">
         <v>813</v>
       </c>
@@ -7737,7 +7732,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="6" t="s">
         <v>815</v>
       </c>
@@ -7745,7 +7740,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="6" t="s">
         <v>817</v>
       </c>
@@ -7753,7 +7748,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="6" t="s">
         <v>819</v>
       </c>
@@ -7761,7 +7756,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="6" t="s">
         <v>821</v>
       </c>
@@ -7772,7 +7767,7 @@
         <v>-25000000</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="6" t="s">
         <v>823</v>
       </c>
@@ -7780,7 +7775,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="6" t="s">
         <v>825</v>
       </c>
@@ -7788,7 +7783,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="6" t="s">
         <v>827</v>
       </c>
@@ -7796,7 +7791,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="6" t="s">
         <v>829</v>
       </c>
@@ -7804,7 +7799,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="6" t="s">
         <v>831</v>
       </c>
@@ -7812,7 +7807,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="6" t="s">
         <v>833</v>
       </c>
@@ -7820,7 +7815,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="6" t="s">
         <v>835</v>
       </c>
@@ -7828,7 +7823,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="6" t="s">
         <v>837</v>
       </c>
@@ -7836,7 +7831,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="6" t="s">
         <v>839</v>
       </c>
@@ -7844,7 +7839,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="6" t="s">
         <v>841</v>
       </c>
@@ -7852,7 +7847,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="6" t="s">
         <v>843</v>
       </c>
@@ -7860,7 +7855,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="6" t="s">
         <v>845</v>
       </c>
@@ -7868,7 +7863,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="6" t="s">
         <v>847</v>
       </c>
@@ -7876,7 +7871,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="6" t="s">
         <v>849</v>
       </c>
@@ -7884,7 +7879,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="6" t="s">
         <v>851</v>
       </c>
@@ -7892,7 +7887,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="6" t="s">
         <v>853</v>
       </c>
@@ -7900,7 +7895,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="6" t="s">
         <v>855</v>
       </c>
@@ -7908,7 +7903,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="6" t="s">
         <v>856</v>
       </c>
@@ -7916,7 +7911,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="6" t="s">
         <v>857</v>
       </c>
@@ -7924,7 +7919,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="6" t="s">
         <v>859</v>
       </c>
@@ -7932,7 +7927,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="6" t="s">
         <v>861</v>
       </c>
@@ -7940,7 +7935,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="6" t="s">
         <v>863</v>
       </c>
@@ -7951,7 +7946,7 @@
         <v>-10140606400</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="6" t="s">
         <v>865</v>
       </c>
@@ -7959,7 +7954,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="6" t="s">
         <v>867</v>
       </c>
@@ -7967,7 +7962,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="6" t="s">
         <v>869</v>
       </c>
@@ -7975,7 +7970,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="6" t="s">
         <v>871</v>
       </c>
@@ -7983,7 +7978,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="6" t="s">
         <v>873</v>
       </c>
@@ -7991,7 +7986,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="6" t="s">
         <v>875</v>
       </c>
@@ -7999,7 +7994,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="6" t="s">
         <v>877</v>
       </c>
@@ -8010,7 +8005,7 @@
         <v>-382394201</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="6" t="s">
         <v>879</v>
       </c>
@@ -8018,7 +8013,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="6" t="s">
         <v>881</v>
       </c>
@@ -8026,7 +8021,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="6" t="s">
         <v>883</v>
       </c>
@@ -8037,7 +8032,7 @@
         <v>20148144654</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="6" t="s">
         <v>885</v>
       </c>
@@ -8048,7 +8043,7 @@
         <v>21650053168</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="6" t="s">
         <v>887</v>
       </c>

--- a/자회사A_FS.xlsx
+++ b/자회사A_FS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhhye\OneDrive\문서\2025 Others\st_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hwan-Hee Hyeong\Documents\OneDrive\문서\2025 Others\st_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BSPL" sheetId="1" r:id="rId1"/>
@@ -3386,13 +3386,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.2109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>138075950588</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>114011958774</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>8832005</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>21641221163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>71000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>13128202573</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>872058000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>548098300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>777270942</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>2960000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>711032953</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>756757177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1584159000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>24326661</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>24063991814</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1827691718</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>9366353115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>12869946981</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>95087461604</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>50700406235</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>274</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>46083792032</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>16797456</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>4405317316</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>-653069981</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>847569412</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>41010985179</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>28628497359</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>13950862248</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>-2742737822</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>540760000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>-532575662</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>284643354</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>-202948883</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>261614530</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>-204656811</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>409728427</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>-284195430</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>123076455</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>-18170962</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>59138000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>-52385624</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>790336000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>1482512026</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>2663953</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>1343750962</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>136097111</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>1893558164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>745171040</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>243087124</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>880000000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>233163412192</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>16383497187</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>3886691487</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>277323799</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>80751665</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>10650929912</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>558511591</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>350145210</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>479143523</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>20124549820</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>20000000000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>9207131329</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>-9207131329</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>124549820</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>36508047007</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>2535151600</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>2535151600</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>102460575980</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>90107442400</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>12353133580</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>91659637605</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>1959821067</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>89699816538</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1101188547</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>196655365185</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>233163412192</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>13502324463</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>10143558450</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>3217766013</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>141000000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>6533015616</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>4916655502</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>1616360114</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>6969308847</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>6863966868</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>1785784316</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>90581841</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>93203318</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>255042825</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>84759032</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>43170481</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>11497253</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>1100052</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>24185881</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>10178486</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>242433438</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>8267625</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>10658749</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>3661757</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>2623673372</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>63600796</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>668052</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>10448688</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>19699966</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>472763182</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>82923640</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>-38147983</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>19089017</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>909043084</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>105341979</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>3453227830</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>2303727457</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>234000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>49081857</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>338338606</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>96116408</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>640510880</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>25218622</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>2169266945</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>354060404</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>41820000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>887035847</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>30525211</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>62265864</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>793559619</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>1389302864</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -4953,17 +4953,17 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I3"/>
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="9" width="17.85546875" customWidth="1"/>
+    <col min="4" max="9" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>192</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>915</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>916</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>909</v>
       </c>
@@ -5051,14 +5051,22 @@
       <c r="C4" s="16" t="s">
         <v>910</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="10">
+        <v>5898630</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1173827383</v>
+      </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="10">
+        <v>-21208162</v>
+      </c>
+      <c r="H4" s="10">
+        <v>-106594030</v>
+      </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>909</v>
       </c>
@@ -5075,7 +5083,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>909</v>
       </c>
@@ -5094,7 +5102,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>909</v>
       </c>
@@ -5114,7 +5122,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>909</v>
       </c>
@@ -5137,7 +5145,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>909</v>
       </c>
@@ -5154,7 +5162,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>909</v>
       </c>
@@ -5171,7 +5179,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>909</v>
       </c>
@@ -5188,7 +5196,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>909</v>
       </c>
@@ -5205,7 +5213,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>909</v>
       </c>
@@ -5222,7 +5230,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>909</v>
       </c>
@@ -5239,7 +5247,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>909</v>
       </c>
@@ -5256,7 +5264,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>909</v>
       </c>
@@ -5273,7 +5281,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>909</v>
       </c>
@@ -5290,7 +5298,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>909</v>
       </c>
@@ -5307,7 +5315,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>909</v>
       </c>
@@ -5324,7 +5332,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>909</v>
       </c>
@@ -5341,7 +5349,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>909</v>
       </c>
@@ -5358,7 +5366,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>909</v>
       </c>
@@ -5375,7 +5383,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>909</v>
       </c>
@@ -5404,14 +5412,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>276</v>
       </c>
@@ -5422,7 +5430,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>279</v>
       </c>
@@ -5433,7 +5441,7 @@
         <v>1101188547</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>280</v>
       </c>
@@ -5444,7 +5452,7 @@
         <v>371637726</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>281</v>
       </c>
@@ -5452,7 +5460,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>283</v>
       </c>
@@ -5463,7 +5471,7 @@
         <v>19089017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>285</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>251330743</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>286</v>
       </c>
@@ -5482,7 +5490,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>288</v>
       </c>
@@ -5493,7 +5501,7 @@
         <v>793559619</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>289</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>291</v>
       </c>
@@ -5509,7 +5517,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>293</v>
       </c>
@@ -5517,7 +5525,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>295</v>
       </c>
@@ -5525,7 +5533,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>297</v>
       </c>
@@ -5533,7 +5541,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>299</v>
       </c>
@@ -5541,7 +5549,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>300</v>
       </c>
@@ -5549,7 +5557,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>302</v>
       </c>
@@ -5557,7 +5565,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>304</v>
       </c>
@@ -5565,7 +5573,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>306</v>
       </c>
@@ -5573,7 +5581,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>308</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>310</v>
       </c>
@@ -5589,7 +5597,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>312</v>
       </c>
@@ -5597,7 +5605,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>314</v>
       </c>
@@ -5605,7 +5613,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>316</v>
       </c>
@@ -5613,7 +5621,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>318</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>320</v>
       </c>
@@ -5629,7 +5637,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>322</v>
       </c>
@@ -5637,7 +5645,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>324</v>
       </c>
@@ -5645,7 +5653,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>326</v>
       </c>
@@ -5653,7 +5661,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>328</v>
       </c>
@@ -5661,7 +5669,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>330</v>
       </c>
@@ -5669,7 +5677,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>332</v>
       </c>
@@ -5677,7 +5685,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>334</v>
       </c>
@@ -5685,7 +5693,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>336</v>
       </c>
@@ -5693,7 +5701,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>338</v>
       </c>
@@ -5701,7 +5709,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>340</v>
       </c>
@@ -5709,7 +5717,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>342</v>
       </c>
@@ -5717,7 +5725,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>344</v>
       </c>
@@ -5725,7 +5733,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>346</v>
       </c>
@@ -5733,7 +5741,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>348</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>350</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>352</v>
       </c>
@@ -5760,7 +5768,7 @@
         <v>-38147983</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>354</v>
       </c>
@@ -5768,7 +5776,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>356</v>
       </c>
@@ -5776,7 +5784,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>358</v>
       </c>
@@ -5784,7 +5792,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>360</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>-69524133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>362</v>
       </c>
@@ -5803,7 +5811,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>364</v>
       </c>
@@ -5811,7 +5819,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>366</v>
       </c>
@@ -5819,7 +5827,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>368</v>
       </c>
@@ -5827,7 +5835,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>370</v>
       </c>
@@ -5835,7 +5843,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>371</v>
       </c>
@@ -5846,7 +5854,7 @@
         <v>354060404</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>372</v>
       </c>
@@ -5857,7 +5865,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>373</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>375</v>
       </c>
@@ -5873,7 +5881,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>377</v>
       </c>
@@ -5881,7 +5889,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>379</v>
       </c>
@@ -5889,7 +5897,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>381</v>
       </c>
@@ -5897,7 +5905,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>383</v>
       </c>
@@ -5905,7 +5913,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>385</v>
       </c>
@@ -5916,7 +5924,7 @@
         <v>41820000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>387</v>
       </c>
@@ -5924,7 +5932,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>389</v>
       </c>
@@ -5935,7 +5943,7 @@
         <v>-25218622</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>390</v>
       </c>
@@ -5943,7 +5951,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>392</v>
       </c>
@@ -5951,7 +5959,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>394</v>
       </c>
@@ -5959,7 +5967,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>396</v>
       </c>
@@ -5967,7 +5975,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>398</v>
       </c>
@@ -5975,7 +5983,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>400</v>
       </c>
@@ -5986,7 +5994,7 @@
         <v>887035847</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>402</v>
       </c>
@@ -5994,7 +6002,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>404</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>406</v>
       </c>
@@ -6010,7 +6018,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>408</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>410</v>
       </c>
@@ -6026,7 +6034,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>412</v>
       </c>
@@ -6037,7 +6045,7 @@
         <v>-338338606</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>414</v>
       </c>
@@ -6045,7 +6053,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>416</v>
       </c>
@@ -6053,7 +6061,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>418</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>420</v>
       </c>
@@ -6069,7 +6077,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>422</v>
       </c>
@@ -6077,7 +6085,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>424</v>
       </c>
@@ -6085,7 +6093,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>426</v>
       </c>
@@ -6093,7 +6101,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>428</v>
       </c>
@@ -6101,7 +6109,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>430</v>
       </c>
@@ -6109,7 +6117,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>432</v>
       </c>
@@ -6117,7 +6125,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>434</v>
       </c>
@@ -6125,7 +6133,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>436</v>
       </c>
@@ -6133,7 +6141,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>438</v>
       </c>
@@ -6141,7 +6149,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>440</v>
       </c>
@@ -6149,7 +6157,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>442</v>
       </c>
@@ -6157,7 +6165,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>444</v>
       </c>
@@ -6165,7 +6173,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>446</v>
       </c>
@@ -6173,7 +6181,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>448</v>
       </c>
@@ -6181,7 +6189,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>450</v>
       </c>
@@ -6189,7 +6197,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>452</v>
       </c>
@@ -6197,7 +6205,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>454</v>
       </c>
@@ -6205,7 +6213,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>456</v>
       </c>
@@ -6213,7 +6221,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>458</v>
       </c>
@@ -6224,7 +6232,7 @@
         <v>-2303727457</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>459</v>
       </c>
@@ -6232,7 +6240,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>461</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>463</v>
       </c>
@@ -6251,7 +6259,7 @@
         <v>-49081857</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>465</v>
       </c>
@@ -6260,7 +6268,7 @@
       </c>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>467</v>
       </c>
@@ -6268,7 +6276,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>469</v>
       </c>
@@ -6276,7 +6284,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>471</v>
       </c>
@@ -6284,7 +6292,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>473</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>475</v>
       </c>
@@ -6300,7 +6308,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>477</v>
       </c>
@@ -6308,7 +6316,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>479</v>
       </c>
@@ -6316,7 +6324,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>481</v>
       </c>
@@ -6327,7 +6335,7 @@
         <v>-709461461</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>483</v>
       </c>
@@ -6338,7 +6346,7 @@
         <v>116062667</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>485</v>
       </c>
@@ -6346,7 +6354,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>487</v>
       </c>
@@ -6357,7 +6365,7 @@
         <v>-691815072</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>489</v>
       </c>
@@ -6365,7 +6373,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>491</v>
       </c>
@@ -6376,7 +6384,7 @@
         <v>-16016763</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>493</v>
       </c>
@@ -6384,7 +6392,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>495</v>
       </c>
@@ -6392,7 +6400,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>497</v>
       </c>
@@ -6400,7 +6408,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>499</v>
       </c>
@@ -6411,7 +6419,7 @@
         <v>-5826947051</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>501</v>
       </c>
@@ -6419,7 +6427,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>503</v>
       </c>
@@ -6427,7 +6435,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>505</v>
       </c>
@@ -6435,7 +6443,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>507</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>509</v>
       </c>
@@ -6451,7 +6459,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>511</v>
       </c>
@@ -6459,7 +6467,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>513</v>
       </c>
@@ -6467,7 +6475,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>515</v>
       </c>
@@ -6475,7 +6483,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>517</v>
       </c>
@@ -6486,7 +6494,7 @@
         <v>2580365141</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>519</v>
       </c>
@@ -6497,7 +6505,7 @@
         <v>10007084537</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>521</v>
       </c>
@@ -6508,7 +6516,7 @@
         <v>-85499010</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>523</v>
       </c>
@@ -6516,7 +6524,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>525</v>
       </c>
@@ -6527,7 +6535,7 @@
         <v>170282056</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>527</v>
       </c>
@@ -6538,7 +6546,7 @@
         <v>28646639</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>529</v>
       </c>
@@ -6546,7 +6554,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>531</v>
       </c>
@@ -6554,7 +6562,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>533</v>
       </c>
@@ -6562,7 +6570,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>535</v>
       </c>
@@ -6570,7 +6578,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>537</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>539</v>
       </c>
@@ -6586,7 +6594,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>541</v>
       </c>
@@ -6597,7 +6605,7 @@
         <v>453608635</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>543</v>
       </c>
@@ -6605,7 +6613,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>545</v>
       </c>
@@ -6613,7 +6621,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>547</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>549</v>
       </c>
@@ -6629,7 +6637,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>551</v>
       </c>
@@ -6637,7 +6645,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>553</v>
       </c>
@@ -6648,7 +6656,7 @@
         <v>-453608635</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>555</v>
       </c>
@@ -6656,7 +6664,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>557</v>
       </c>
@@ -6664,7 +6672,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>559</v>
       </c>
@@ -6672,7 +6680,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>561</v>
       </c>
@@ -6680,7 +6688,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>563</v>
       </c>
@@ -6688,7 +6696,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>565</v>
       </c>
@@ -6696,7 +6704,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>567</v>
       </c>
@@ -6704,7 +6712,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>569</v>
       </c>
@@ -6712,7 +6720,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>571</v>
       </c>
@@ -6720,7 +6728,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>573</v>
       </c>
@@ -6728,7 +6736,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>575</v>
       </c>
@@ -6736,7 +6744,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>577</v>
       </c>
@@ -6744,7 +6752,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>579</v>
       </c>
@@ -6752,7 +6760,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>581</v>
       </c>
@@ -6763,7 +6771,7 @@
         <v>6751985480</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>583</v>
       </c>
@@ -6774,7 +6782,7 @@
         <v>-354060404</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>585</v>
       </c>
@@ -6785,7 +6793,7 @@
         <v>-1078587124</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>587</v>
       </c>
@@ -6793,7 +6801,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>589</v>
       </c>
@@ -6804,7 +6812,7 @@
         <v>108100000</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>591</v>
       </c>
@@ -6815,7 +6823,7 @@
         <v>110880000000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>593</v>
       </c>
@@ -6823,7 +6831,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>595</v>
       </c>
@@ -6831,7 +6839,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>597</v>
       </c>
@@ -6842,7 +6850,7 @@
         <v>7788825</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>599</v>
       </c>
@@ -6850,7 +6858,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>601</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>2186000</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>603</v>
       </c>
@@ -6869,7 +6877,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>605</v>
       </c>
@@ -6877,7 +6885,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>607</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>609</v>
       </c>
@@ -6893,7 +6901,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>611</v>
       </c>
@@ -6901,7 +6909,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>613</v>
       </c>
@@ -6909,7 +6917,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>615</v>
       </c>
@@ -6917,7 +6925,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>617</v>
       </c>
@@ -6925,7 +6933,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>619</v>
       </c>
@@ -6936,7 +6944,7 @@
         <v>1187000000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>621</v>
       </c>
@@ -6944,7 +6952,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>623</v>
       </c>
@@ -6952,7 +6960,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>625</v>
       </c>
@@ -6960,7 +6968,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>627</v>
       </c>
@@ -6968,7 +6976,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>629</v>
       </c>
@@ -6976,7 +6984,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>631</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>633</v>
       </c>
@@ -6992,7 +7000,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>635</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>637</v>
       </c>
@@ -7008,7 +7016,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>639</v>
       </c>
@@ -7016,7 +7024,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>641</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>643</v>
       </c>
@@ -7032,7 +7040,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>645</v>
       </c>
@@ -7040,7 +7048,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>647</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>649</v>
       </c>
@@ -7056,7 +7064,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>651</v>
       </c>
@@ -7064,7 +7072,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>653</v>
       </c>
@@ -7072,7 +7080,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>655</v>
       </c>
@@ -7080,7 +7088,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>657</v>
       </c>
@@ -7088,7 +7096,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>659</v>
       </c>
@@ -7096,7 +7104,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>661</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>663</v>
       </c>
@@ -7112,7 +7120,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>665</v>
       </c>
@@ -7120,7 +7128,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>667</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>669</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>671</v>
       </c>
@@ -7144,7 +7152,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>673</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>675</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>677</v>
       </c>
@@ -7168,7 +7176,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>679</v>
       </c>
@@ -7176,7 +7184,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>681</v>
       </c>
@@ -7184,7 +7192,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>683</v>
       </c>
@@ -7192,7 +7200,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>685</v>
       </c>
@@ -7203,7 +7211,7 @@
         <v>2041820000</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>687</v>
       </c>
@@ -7211,7 +7219,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>689</v>
       </c>
@@ -7219,7 +7227,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>691</v>
       </c>
@@ -7227,7 +7235,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>693</v>
       </c>
@@ -7235,7 +7243,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>695</v>
       </c>
@@ -7243,7 +7251,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>697</v>
       </c>
@@ -7254,7 +7262,7 @@
         <v>-65000000000</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>699</v>
       </c>
@@ -7262,7 +7270,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>701</v>
       </c>
@@ -7273,7 +7281,7 @@
         <v>-880000000</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>703</v>
       </c>
@@ -7282,7 +7290,7 @@
       </c>
       <c r="C219" s="7"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>705</v>
       </c>
@@ -7290,7 +7298,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>707</v>
       </c>
@@ -7299,7 +7307,7 @@
       </c>
       <c r="C221" s="7"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>709</v>
       </c>
@@ -7307,7 +7315,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>711</v>
       </c>
@@ -7315,7 +7323,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>713</v>
       </c>
@@ -7323,7 +7331,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>715</v>
       </c>
@@ -7331,7 +7339,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>717</v>
       </c>
@@ -7339,7 +7347,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>719</v>
       </c>
@@ -7347,7 +7355,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>721</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>723</v>
       </c>
@@ -7363,7 +7371,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>725</v>
       </c>
@@ -7371,7 +7379,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>727</v>
       </c>
@@ -7379,7 +7387,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>729</v>
       </c>
@@ -7387,7 +7395,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>731</v>
       </c>
@@ -7395,7 +7403,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>733</v>
       </c>
@@ -7403,7 +7411,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>735</v>
       </c>
@@ -7411,7 +7419,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>737</v>
       </c>
@@ -7419,7 +7427,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>739</v>
       </c>
@@ -7427,7 +7435,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>741</v>
       </c>
@@ -7435,7 +7443,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>743</v>
       </c>
@@ -7443,7 +7451,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>745</v>
       </c>
@@ -7451,7 +7459,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>747</v>
       </c>
@@ -7462,7 +7470,7 @@
         <v>-26190732</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>749</v>
       </c>
@@ -7470,7 +7478,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>751</v>
       </c>
@@ -7478,7 +7486,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>753</v>
       </c>
@@ -7486,7 +7494,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>755</v>
       </c>
@@ -7494,7 +7502,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>757</v>
       </c>
@@ -7505,7 +7513,7 @@
         <v>-374536000</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>759</v>
       </c>
@@ -7513,7 +7521,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>761</v>
       </c>
@@ -7521,7 +7529,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>763</v>
       </c>
@@ -7529,7 +7537,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>765</v>
       </c>
@@ -7537,7 +7545,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>767</v>
       </c>
@@ -7545,7 +7553,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>769</v>
       </c>
@@ -7553,7 +7561,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>771</v>
       </c>
@@ -7561,7 +7569,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>773</v>
       </c>
@@ -7569,7 +7577,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>775</v>
       </c>
@@ -7577,7 +7585,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>777</v>
       </c>
@@ -7585,7 +7593,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>779</v>
       </c>
@@ -7593,7 +7601,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>781</v>
       </c>
@@ -7601,7 +7609,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>783</v>
       </c>
@@ -7609,7 +7617,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>785</v>
       </c>
@@ -7617,7 +7625,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>787</v>
       </c>
@@ -7625,7 +7633,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>789</v>
       </c>
@@ -7633,7 +7641,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>791</v>
       </c>
@@ -7641,7 +7649,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>793</v>
       </c>
@@ -7652,7 +7660,7 @@
         <v>-48072096175</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>795</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>797</v>
       </c>
@@ -7668,7 +7676,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>799</v>
       </c>
@@ -7676,7 +7684,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>801</v>
       </c>
@@ -7684,7 +7692,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>803</v>
       </c>
@@ -7692,7 +7700,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>805</v>
       </c>
@@ -7700,7 +7708,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>807</v>
       </c>
@@ -7708,7 +7716,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>809</v>
       </c>
@@ -7716,7 +7724,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>811</v>
       </c>
@@ -7724,7 +7732,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>813</v>
       </c>
@@ -7732,7 +7740,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>815</v>
       </c>
@@ -7740,7 +7748,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>817</v>
       </c>
@@ -7748,7 +7756,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>819</v>
       </c>
@@ -7756,7 +7764,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>821</v>
       </c>
@@ -7767,7 +7775,7 @@
         <v>-25000000</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>823</v>
       </c>
@@ -7775,7 +7783,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>825</v>
       </c>
@@ -7783,7 +7791,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>827</v>
       </c>
@@ -7791,7 +7799,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>829</v>
       </c>
@@ -7799,7 +7807,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>831</v>
       </c>
@@ -7807,7 +7815,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>833</v>
       </c>
@@ -7815,7 +7823,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>835</v>
       </c>
@@ -7823,7 +7831,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>837</v>
       </c>
@@ -7831,7 +7839,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>839</v>
       </c>
@@ -7839,7 +7847,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>841</v>
       </c>
@@ -7847,7 +7855,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>843</v>
       </c>
@@ -7855,7 +7863,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>845</v>
       </c>
@@ -7863,7 +7871,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>847</v>
       </c>
@@ -7871,7 +7879,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>849</v>
       </c>
@@ -7879,7 +7887,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>851</v>
       </c>
@@ -7887,7 +7895,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>853</v>
       </c>
@@ -7895,7 +7903,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>855</v>
       </c>
@@ -7903,7 +7911,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>856</v>
       </c>
@@ -7911,7 +7919,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>857</v>
       </c>
@@ -7919,7 +7927,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>859</v>
       </c>
@@ -7927,7 +7935,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>861</v>
       </c>
@@ -7935,7 +7943,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>863</v>
       </c>
@@ -7946,7 +7954,7 @@
         <v>-10140606400</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>865</v>
       </c>
@@ -7954,7 +7962,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>867</v>
       </c>
@@ -7962,7 +7970,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>869</v>
       </c>
@@ -7970,7 +7978,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>871</v>
       </c>
@@ -7978,7 +7986,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>873</v>
       </c>
@@ -7986,7 +7994,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>875</v>
       </c>
@@ -7994,7 +8002,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>877</v>
       </c>
@@ -8005,7 +8013,7 @@
         <v>-382394201</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>879</v>
       </c>
@@ -8013,7 +8021,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>881</v>
       </c>
@@ -8021,7 +8029,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>883</v>
       </c>
@@ -8032,7 +8040,7 @@
         <v>20148144654</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>885</v>
       </c>
@@ -8043,7 +8051,7 @@
         <v>21650053168</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>887</v>
       </c>
